--- a/Botanix_Data.xlsx
+++ b/Botanix_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\azimk\OneDrive\Desktop\Full Stack\few thing\3sixty\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B188B3-DFED-4808-9C61-6CD2FC7D57B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D29A69A3-32C2-4B58-BEBE-6A9360DB84EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="710" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14301,8 +14301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8330C8F8-B5BF-4FA2-AF8D-9E4B934A2B09}">
   <dimension ref="A1:K310"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCellId="3" sqref="A152:K310 H151:K151 A151:F151 A1:K150"/>
+    <sheetView tabSelected="1" topLeftCell="B146" workbookViewId="0">
+      <selection activeCell="I283" sqref="A1:K310"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -16156,7 +16156,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="41.4">
+    <row r="55" spans="1:11" ht="55.2">
       <c r="A55" s="168" t="s">
         <v>151</v>
       </c>
@@ -16891,7 +16891,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="55.2">
+    <row r="76" spans="1:11" ht="69">
       <c r="A76" s="168" t="s">
         <v>242</v>
       </c>
@@ -20251,7 +20251,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="172" spans="1:11" ht="27.6">
+    <row r="172" spans="1:11" ht="28.8">
       <c r="A172" s="120" t="s">
         <v>108</v>
       </c>
@@ -24604,7 +24604,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="297" spans="1:11" ht="216">
+    <row r="297" spans="1:11" ht="230.4">
       <c r="A297" s="131" t="s">
         <v>1126</v>
       </c>
@@ -24637,7 +24637,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="298" spans="1:11" ht="216">
+    <row r="298" spans="1:11" ht="230.4">
       <c r="A298" s="131" t="s">
         <v>1129</v>
       </c>
@@ -25068,15 +25068,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F71" r:id="rId1" xr:uid="{0AEA4F9E-0411-4A5E-B5CC-23E4ADF7E8BA}"/>
-    <hyperlink ref="E70" r:id="rId2" xr:uid="{7BD69DD8-76C9-4D3C-9E9C-5D0E1BFD0B25}"/>
-    <hyperlink ref="E67" r:id="rId3" xr:uid="{F5D23070-8739-48DD-8946-33323469FCA9}"/>
-    <hyperlink ref="E66" r:id="rId4" xr:uid="{3E796F2F-8AA8-4376-AB4A-A6FD4FCBCE97}"/>
+    <hyperlink ref="E32" r:id="rId1" xr:uid="{B519E936-D93C-488E-8ADE-1A3315AC4188}"/>
+    <hyperlink ref="F32" r:id="rId2" xr:uid="{E88A81D1-8980-4AA8-A557-7A36D6B2A695}"/>
+    <hyperlink ref="E35" r:id="rId3" xr:uid="{2584CBFF-B1F8-4C87-B371-CFDD93DBA8BA}"/>
+    <hyperlink ref="F52" r:id="rId4" xr:uid="{FA867A78-0200-4A82-B480-94FC90174D81}"/>
     <hyperlink ref="E58" r:id="rId5" xr:uid="{0E965DD0-A9FB-4F21-95B4-BE0C98239C34}"/>
-    <hyperlink ref="F52" r:id="rId6" xr:uid="{FA867A78-0200-4A82-B480-94FC90174D81}"/>
-    <hyperlink ref="E35" r:id="rId7" xr:uid="{2584CBFF-B1F8-4C87-B371-CFDD93DBA8BA}"/>
-    <hyperlink ref="F32" r:id="rId8" xr:uid="{E88A81D1-8980-4AA8-A557-7A36D6B2A695}"/>
-    <hyperlink ref="E32" r:id="rId9" xr:uid="{B519E936-D93C-488E-8ADE-1A3315AC4188}"/>
+    <hyperlink ref="E66" r:id="rId6" xr:uid="{3E796F2F-8AA8-4376-AB4A-A6FD4FCBCE97}"/>
+    <hyperlink ref="E67" r:id="rId7" xr:uid="{F5D23070-8739-48DD-8946-33323469FCA9}"/>
+    <hyperlink ref="E70" r:id="rId8" xr:uid="{7BD69DD8-76C9-4D3C-9E9C-5D0E1BFD0B25}"/>
+    <hyperlink ref="F71" r:id="rId9" xr:uid="{0AEA4F9E-0411-4A5E-B5CC-23E4ADF7E8BA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
